--- a/data/trans_camb/P55_4-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P55_4-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-9,43</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-15,94</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-13,02</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-10.65911126534967</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-16.38346350745957</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-13.80283762704998</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-31,4; 11,9</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-36,35; 3,52</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-27,8; 2,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-32.37324498995326</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-37.22515809614251</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-28.3197557086157</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-11,39%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-20,45%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-16,18%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>9.685384107059919</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>3.439290653420862</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>2.189164302928119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-35,77; 16,66</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-43,2; 4,97</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-32,8; 2,73</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.1260677454967696</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>-0.2092331985600325</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.1692942657003641</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>41,23</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-5,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>21,32</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.3634765697736377</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.4450387681228012</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3326758721801666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>17,04; 67,84</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-22,69; 13,7</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>5,44; 41,95</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.1238378180460123</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.04292550471757621</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.015096698602323</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>86,9%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-7,18%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>36,92%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>40.08992379219717</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-5.046886216322011</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>20.31117991308246</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>25,86; 289,99</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-29,93; 22,75</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>7,23; 99,93</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>16.71929063154057</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-23.12016361769039</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.915007197936886</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,67</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-8,49</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-5,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>66.95644550838355</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.64635950994249</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>39.87176493743046</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-16,95; 16,96</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-19,83; 3,13</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-15,5; 5,14</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>0.8158150164451138</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.07240889277019186</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.3460707276013434</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-0,89%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-10,11%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-6,83%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>0.2472481209531982</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.3079706553648943</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.05505846031892003</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-20,74; 25,55</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-22,34; 3,86</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-18,32; 6,82</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>2.622484801328233</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.2213210625587012</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.9051591081267257</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +775,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-7,05</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,71</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-2.030503380177806</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-8.472390320946888</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-6.091678278216184</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-10,19; 9,63</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-20,06; 7,62</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-12,08; 4,78</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-18.26943673688088</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-20.36199337401554</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-16.74348847207657</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>0,14%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-9,97%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-4,66%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>16.75455301827538</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>3.49699451751286</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>5.016282004962623</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-10,91; 11,49</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-26,62; 12,12</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-14,68; 6,32</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.02766936339359771</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.1018288321545425</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.07674484745822045</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-7,24</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-5,72</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-7,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.2257509996087085</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2301059507370208</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.1981458135205326</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-22,48; 8,33</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-25,78; 14,94</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-19,31; 5,63</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.2592316607198905</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.04458239550355819</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.06863620102025922</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-9,4%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-9,59%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-10,52%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-0.2124162819751807</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-7.550565104528905</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-4.104478389946642</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-26,95; 11,56</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-38,0; 29,1</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-26,0; 8,97</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-10.12408395988659</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-21.08024673029754</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-12.47264193923885</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>-9,79</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>-24,67</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-19,57</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>8.8286229944482</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>6.903716459502659</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>4.100302791338498</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>-30,33; 8,86</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>-50,09; -0,35</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-37,69; -3,58</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.002366059698831847</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.1063827531095293</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.05116389866513828</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>-11,59%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>-36,03%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-25,81%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.1085275966255722</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.2667733349959328</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1478676048565155</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>-34,88; 10,57</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>-64,06; -0,45</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>-46,77; -6,74</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.1038649424860248</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1180867135152985</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.05394219720059855</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +987,315 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>4,55</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>-11,87</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>-3,89</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>-7.197934142244</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>-4.091347051258076</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>-6.47767478471385</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>-3,58; 15,62</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>-18,61; -4,18</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>-9,5; 3,28</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>-22.23557612075479</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>-24.79815036996481</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>-18.5557846862661</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>6,06%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>-16,15%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>-5,24%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>8.361056644574878</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>16.55213651612863</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>7.022899593861996</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>-4,4; 23,66</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>-24,43; -5,78</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>-12,29; 4,41</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>-0.09301096961519446</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>-0.06820646064404205</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>-0.09244806211190752</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="n">
+        <v>-0.2658033223805698</v>
+      </c>
+      <c r="D32" s="6" t="n">
+        <v>-0.3577093550311685</v>
+      </c>
+      <c r="E32" s="6" t="n">
+        <v>-0.2464670171084048</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="n">
+        <v>0.119354708625956</v>
+      </c>
+      <c r="D33" s="6" t="n">
+        <v>0.3407258846462818</v>
+      </c>
+      <c r="E33" s="6" t="n">
+        <v>0.1046085984678854</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>-7.625795430754789</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>-27.24695151414124</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>-20.11913678624905</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>-26.76086492445692</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-49.06278867102999</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>-37.70814423971933</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>9.801693028819795</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>-1.949685066929686</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>-4.183759499366928</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="n">
+        <v>-0.09004532802863401</v>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>-0.3956344970956419</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>-0.2654502295697982</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="n">
+        <v>-0.2996504252109331</v>
+      </c>
+      <c r="D38" s="6" t="n">
+        <v>-0.6474520962061694</v>
+      </c>
+      <c r="E38" s="6" t="n">
+        <v>-0.4602298163558441</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="n">
+        <v>0.1262597183903295</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>-0.04388828674893864</v>
+      </c>
+      <c r="E39" s="6" t="n">
+        <v>-0.06831161281315248</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>4.002177728740808</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>-11.97644253966421</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>-4.199802317850843</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>-4.169677118965072</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>-18.80510627071751</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>-9.524008263869455</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>14.49053828595515</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>-4.317270070869752</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>2.43794669687788</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>0.05281687314509396</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>-0.1630869151806412</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>-0.05631608815187013</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>-0.0510190120316559</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>-0.2463502581117751</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>-0.1228482761497303</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>0.2138388598340019</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>-0.06214541096875903</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>0.03488315584654422</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1303,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
